--- a/biology/Botanique/Forêt_de_Sainte-Apolline/Forêt_de_Sainte-Apolline.xlsx
+++ b/biology/Botanique/Forêt_de_Sainte-Apolline/Forêt_de_Sainte-Apolline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Sainte-Apolline</t>
+          <t>Forêt_de_Sainte-Apolline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Sainte-Apolline  est une forêt départementale située dans les Yvelines en France.  Couvrant une superficie de 297 hectares, elle s'étend principalement sur la commune de Plaisir et secondairement (environ 10 %) sur celle de Neauphle-le-Château. Elle est formée principalement de futaie de chênes rouvres et de taillis de châtaigniers.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Sainte-Apolline</t>
+          <t>Forêt_de_Sainte-Apolline</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au XIIIe siècle des moines y bâtirent une chapelle en l'honneur de Sainte Apolline. La chapelle aurait abrité une partie de ses reliques, un vecteur d'attractivité pendant plusieurs siècles pour des pèlerins. Détruite au XVIIIe siècle, son emplacement est marqué par une allée de six tilleuls plantés au XVIIIe siècle, encore visibles aujourd'hui. 
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Sainte-Apolline</t>
+          <t>Forêt_de_Sainte-Apolline</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,11 +560,13 @@
           <t>Protection de la nature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 297 hectares de la forêt de Sainte-Apolline sont classés Espace naturel sensible (ENS) par le département des Yvelines[2]. Un parcours d’orientation adulte et un enfant y ont été créés.
-La forêt est également classée Zone Naturelle d'Intérêt Ecologique, Faunistique et Floristique (ZNIEFF)[3].
-On peut en particulier y rencontrer le Loriot d’Europe[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 297 hectares de la forêt de Sainte-Apolline sont classés Espace naturel sensible (ENS) par le département des Yvelines. Un parcours d’orientation adulte et un enfant y ont été créés.
+La forêt est également classée Zone Naturelle d'Intérêt Ecologique, Faunistique et Floristique (ZNIEFF).
+On peut en particulier y rencontrer le Loriot d’Europe.
 </t>
         </is>
       </c>
